--- a/20200310_V3.xlsx
+++ b/20200310_V3.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FlightTest\Desktop\PFDs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8acb37244eba5cb0/Documenten/TestFlight/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_E5D2844029501B72C925C91681F4768025AFB678" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E0FBBD0-0BD6-4E83-8BA9-1D641955AE3C}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="11820"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -312,7 +313,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
@@ -379,7 +380,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="34">
     <dxf>
@@ -1126,7 +1127,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="CABIN"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="CABIN">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -1170,7 +1177,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1245,6 +1252,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1280,6 +1304,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1455,28 +1496,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D28" sqref="D28:J33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.109375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="7.140625" customWidth="1"/>
+    <col min="4" max="4" width="7.109375" customWidth="1"/>
     <col min="5" max="13" width="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1488,7 +1529,7 @@
       </c>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1500,13 +1541,13 @@
       </c>
       <c r="H4" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1555,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
@@ -1523,7 +1564,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>48</v>
       </c>
@@ -1532,7 +1573,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>49</v>
       </c>
@@ -1543,7 +1584,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -1554,7 +1595,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1565,7 +1606,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>52</v>
       </c>
@@ -1576,7 +1617,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>53</v>
       </c>
@@ -1587,7 +1628,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>54</v>
       </c>
@@ -1598,7 +1639,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1609,7 +1650,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1617,12 +1658,12 @@
         <v>4100</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -1630,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1662,7 +1703,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>12</v>
       </c>
@@ -1691,7 +1732,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1</v>
       </c>
@@ -1723,7 +1764,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2</v>
       </c>
@@ -1755,7 +1796,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3</v>
       </c>
@@ -1787,7 +1828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>4</v>
       </c>
@@ -1819,7 +1860,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>5</v>
       </c>
@@ -1851,7 +1892,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>6</v>
       </c>
@@ -1883,7 +1924,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1899,23 +1940,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C35" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>45</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -1947,7 +1988,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B42" s="5" t="s">
         <v>58</v>
       </c>
@@ -1976,7 +2017,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1992,7 +2033,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2</v>
       </c>
@@ -2008,7 +2049,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3</v>
       </c>
@@ -2024,7 +2065,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4</v>
       </c>
@@ -2040,7 +2081,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>5</v>
       </c>
@@ -2056,7 +2097,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>6</v>
       </c>
@@ -2072,7 +2113,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>7</v>
       </c>
@@ -2088,17 +2129,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C51" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>44</v>
       </c>
@@ -2106,7 +2147,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2147,7 +2188,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B57" s="5" t="s">
         <v>58</v>
       </c>
@@ -2185,7 +2226,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1</v>
       </c>
@@ -2226,7 +2267,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2</v>
       </c>
@@ -2267,7 +2308,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3</v>
       </c>
@@ -2308,7 +2349,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>4</v>
       </c>
@@ -2349,7 +2390,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>5</v>
       </c>
@@ -2390,7 +2431,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6</v>
       </c>
@@ -2431,7 +2472,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>7</v>
       </c>
@@ -2472,17 +2513,17 @@
         <v>92</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>56</v>
       </c>
@@ -2490,7 +2531,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>57</v>
       </c>
@@ -2504,7 +2545,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -2545,7 +2586,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B74" s="5" t="s">
         <v>58</v>
       </c>
@@ -2583,7 +2624,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1</v>
       </c>
@@ -2624,7 +2665,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>2</v>
       </c>
@@ -2665,17 +2706,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C77" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D81" t="s">
         <v>36</v>
       </c>
@@ -2686,7 +2727,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D82" t="s">
         <v>58</v>
       </c>
@@ -2697,7 +2738,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>37</v>
       </c>
@@ -2717,7 +2758,7 @@
         <v>3.577546296296296E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>40</v>
       </c>
